--- a/scraper/top_remaining_spreadsheets_states/top_remaining_OH.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_OH.xlsx
@@ -41,15 +41,15 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Double Doubler</t>
+  </si>
+  <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
     <t>Luck of the Irish Tripler</t>
   </si>
   <si>
-    <t>2019-03-07</t>
-  </si>
-  <si>
-    <t>Double Doubler</t>
-  </si>
-  <si>
     <t>Decade of Dollars</t>
   </si>
   <si>
@@ -59,12 +59,12 @@
     <t>Fast $50s</t>
   </si>
   <si>
+    <t>Snow Me the Money</t>
+  </si>
+  <si>
     <t>Holiday Cash</t>
   </si>
   <si>
-    <t>Snow Me the Money</t>
-  </si>
-  <si>
     <t>Triple Cash</t>
   </si>
   <si>
@@ -92,18 +92,18 @@
     <t>Power Play Cashword</t>
   </si>
   <si>
+    <t>Fireball Bingo</t>
+  </si>
+  <si>
+    <t>Find the 9s</t>
+  </si>
+  <si>
+    <t>Blazing Hot Cash</t>
+  </si>
+  <si>
     <t>I Love Cash</t>
   </si>
   <si>
-    <t>Fireball Bingo</t>
-  </si>
-  <si>
-    <t>Find the 9s</t>
-  </si>
-  <si>
-    <t>Blazing Hot Cash</t>
-  </si>
-  <si>
     <t>Money Bags Multiplier</t>
   </si>
   <si>
@@ -137,13 +137,13 @@
     <t>Naughty or Nice</t>
   </si>
   <si>
+    <t>Skee-Ball</t>
+  </si>
+  <si>
+    <t>Bingo Plus</t>
+  </si>
+  <si>
     <t>Cash Wheel</t>
-  </si>
-  <si>
-    <t>Skee-Ball</t>
-  </si>
-  <si>
-    <t>Bingo Plus</t>
   </si>
   <si>
     <t>$5.00 Games</t>
@@ -638,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -658,10 +658,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -701,7 +701,7 @@
         <v>508</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -715,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>464</v>
@@ -778,10 +778,10 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -798,10 +798,10 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -958,10 +958,10 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -975,13 +975,13 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>473</v>
@@ -1015,13 +1015,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1035,13 +1035,13 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1058,10 +1058,10 @@
         <v>28</v>
       </c>
       <c r="D23">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1101,7 +1101,7 @@
         <v>455</v>
       </c>
       <c r="E25">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1278,10 +1278,10 @@
         <v>40</v>
       </c>
       <c r="D34">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1298,7 +1298,7 @@
         <v>41</v>
       </c>
       <c r="D35">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1318,10 +1318,10 @@
         <v>42</v>
       </c>
       <c r="D36">
-        <v>404</v>
+        <v>498</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1821,7 +1821,7 @@
         <v>501</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_OH.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_OH.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Double Doubler</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>Luck of the Irish Tripler</t>
@@ -53,36 +53,39 @@
     <t>Decade of Dollars</t>
   </si>
   <si>
+    <t>Wild Cherry Doubler</t>
+  </si>
+  <si>
+    <t>Cash Explosion</t>
+  </si>
+  <si>
+    <t>Fast $50s</t>
+  </si>
+  <si>
+    <t>Snow Me the Money</t>
+  </si>
+  <si>
     <t>Triple Tripler</t>
   </si>
   <si>
-    <t>Fast $50s</t>
-  </si>
-  <si>
-    <t>Snow Me the Money</t>
-  </si>
-  <si>
     <t>Holiday Cash</t>
   </si>
   <si>
     <t>Triple Cash</t>
   </si>
   <si>
-    <t>Winner, Winner Chicken Dinner</t>
-  </si>
-  <si>
-    <t>2019-02-13</t>
+    <t>2019-03-13</t>
   </si>
   <si>
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>Money Multiplier</t>
+  </si>
+  <si>
     <t>Reindeer Game</t>
   </si>
   <si>
-    <t>Money Multiplier</t>
-  </si>
-  <si>
     <t>Bingo Squared</t>
   </si>
   <si>
@@ -92,33 +95,30 @@
     <t>Power Play Cashword</t>
   </si>
   <si>
+    <t>Some Like It Hot</t>
+  </si>
+  <si>
+    <t>Money Bags Multiplier</t>
+  </si>
+  <si>
+    <t>Blazing Hot Cash</t>
+  </si>
+  <si>
     <t>Fireball Bingo</t>
   </si>
   <si>
+    <t>I Love Cash</t>
+  </si>
+  <si>
     <t>Find the 9s</t>
   </si>
   <si>
-    <t>Blazing Hot Cash</t>
-  </si>
-  <si>
-    <t>I Love Cash</t>
-  </si>
-  <si>
-    <t>Money Bags Multiplier</t>
-  </si>
-  <si>
-    <t>Cash Explosion</t>
-  </si>
-  <si>
     <t>Holiday Gifts</t>
   </si>
   <si>
     <t>Big $100 Explosion</t>
   </si>
   <si>
-    <t>Life Is Good</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -128,6 +128,9 @@
     <t>Red Hot 7s</t>
   </si>
   <si>
+    <t>Skee-Ball</t>
+  </si>
+  <si>
     <t>Boardgame Bonus</t>
   </si>
   <si>
@@ -137,84 +140,81 @@
     <t>Naughty or Nice</t>
   </si>
   <si>
-    <t>Skee-Ball</t>
+    <t>Cash Wheel</t>
   </si>
   <si>
     <t>Bingo Plus</t>
   </si>
   <si>
-    <t>Cash Wheel</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>Bingo Times 10</t>
+  </si>
+  <si>
+    <t>All About the Bens</t>
+  </si>
+  <si>
+    <t>Jackpot Party</t>
+  </si>
+  <si>
+    <t>Power 5s</t>
+  </si>
+  <si>
+    <t>$150,000 Jackpot</t>
+  </si>
+  <si>
+    <t>Winter Ice Multiplier</t>
+  </si>
+  <si>
+    <t>Special Edition Cashword</t>
+  </si>
+  <si>
+    <t>Jewel 7s</t>
+  </si>
+  <si>
+    <t>Casino Royale</t>
+  </si>
+  <si>
+    <t>$25 Million Payout</t>
+  </si>
+  <si>
+    <t>$300,000 Diamond Dollars</t>
+  </si>
+  <si>
     <t>Full of $500s</t>
   </si>
   <si>
-    <t>Bingo Times 10</t>
-  </si>
-  <si>
-    <t>All About the Bens</t>
-  </si>
-  <si>
-    <t>Jackpot Party</t>
-  </si>
-  <si>
-    <t>Special Edition Cashword</t>
-  </si>
-  <si>
-    <t>Power 5s</t>
-  </si>
-  <si>
-    <t>$150,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Winter Ice Multiplier</t>
-  </si>
-  <si>
-    <t>$25 Million Payout</t>
-  </si>
-  <si>
-    <t>Casino Royale</t>
-  </si>
-  <si>
-    <t>$300,000 Diamond Dollars</t>
-  </si>
-  <si>
-    <t>Win It All</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>$500,000 Cashword</t>
+  </si>
+  <si>
+    <t>$250,000 a Year for Life</t>
+  </si>
+  <si>
+    <t>Holiday Fun</t>
+  </si>
+  <si>
+    <t>Million Dollar Payday</t>
+  </si>
+  <si>
+    <t>Diamonds and Gold</t>
+  </si>
+  <si>
+    <t>Million Dollar Multiplier</t>
+  </si>
+  <si>
+    <t>Royal Gems</t>
+  </si>
+  <si>
+    <t>Super Break the Bank</t>
+  </si>
+  <si>
     <t>Cash X50</t>
   </si>
   <si>
-    <t>$500,000 Cashword</t>
-  </si>
-  <si>
-    <t>$250,000 a Year for Life</t>
-  </si>
-  <si>
-    <t>Holiday Fun</t>
-  </si>
-  <si>
-    <t>Royal Gems</t>
-  </si>
-  <si>
-    <t>Million Dollar Payday</t>
-  </si>
-  <si>
-    <t>Diamonds and Gold</t>
-  </si>
-  <si>
-    <t>Super Break the Bank</t>
-  </si>
-  <si>
-    <t>Million Dollar Multiplier</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
@@ -239,12 +239,12 @@
     <t>$100 Million Money Explosion</t>
   </si>
   <si>
+    <t>$5,000,000 Bonus</t>
+  </si>
+  <si>
     <t>Ohio Cash Blowout</t>
   </si>
   <si>
-    <t>$100,000,000 Fortune</t>
-  </si>
-  <si>
     <t>$30.00 Games</t>
   </si>
   <si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>Max the Money</t>
-  </si>
-  <si>
-    <t>$500,000,000 Spectacular</t>
   </si>
 </sst>
 </file>
@@ -599,7 +596,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +638,7 @@
         <v>490</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -661,7 +658,7 @@
         <v>491</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -681,7 +678,7 @@
         <v>496</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -698,10 +695,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>378</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -715,13 +712,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>906</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -735,13 +732,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -755,13 +752,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -775,13 +772,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -795,13 +792,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>480</v>
       </c>
       <c r="E10">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -818,10 +815,10 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -835,16 +832,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -852,19 +849,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>464</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>486</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -872,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -892,16 +889,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -912,13 +909,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -932,16 +929,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -952,16 +949,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -972,16 +969,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -992,16 +989,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1012,16 +1009,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1032,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1052,16 +1049,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1072,16 +1069,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1092,16 +1089,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="E25">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1112,16 +1109,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1132,16 +1129,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1152,19 +1149,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1172,13 +1169,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>339</v>
+        <v>481</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1192,19 +1189,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1215,13 +1212,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>451</v>
+        <v>339</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1235,13 +1232,13 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1255,13 +1252,13 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1275,13 +1272,13 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1295,13 +1292,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1315,10 +1312,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1332,16 +1329,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1352,16 +1349,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1374,14 +1371,14 @@
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39">
-        <v>7</v>
+      <c r="C39" t="s">
+        <v>44</v>
       </c>
       <c r="D39">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1395,7 +1392,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40">
         <v>475</v>
@@ -1415,7 +1412,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41">
         <v>432</v>
@@ -1435,13 +1432,13 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1454,14 +1451,14 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
-        <v>49</v>
+      <c r="C43">
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1475,7 +1472,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D44">
         <v>452</v>
@@ -1495,7 +1492,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45">
         <v>487</v>
@@ -1515,13 +1512,13 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D46">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1535,13 +1532,13 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47">
-        <v>407</v>
+        <v>506</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1555,13 +1552,13 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1575,13 +1572,13 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D49">
-        <v>414</v>
+        <v>493</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1595,16 +1592,16 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1612,16 +1609,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1632,13 +1629,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D52">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1652,19 +1649,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>308</v>
+        <v>448</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1675,13 +1672,13 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D54">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1695,13 +1692,13 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D55">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1715,13 +1712,13 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D56">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1735,13 +1732,13 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D57">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1755,10 +1752,10 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D58">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1775,13 +1772,13 @@
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D59">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1795,13 +1792,13 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D60">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1815,10 +1812,10 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D61">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -1832,16 +1829,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>358</v>
+        <v>500</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1852,16 +1849,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D63">
-        <v>302</v>
+        <v>501</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1872,19 +1869,19 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1895,13 +1892,13 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D65">
-        <v>428</v>
+        <v>358</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1915,13 +1912,13 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D66">
-        <v>461</v>
+        <v>302</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1935,13 +1932,13 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D67">
-        <v>488</v>
+        <v>415</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1955,10 +1952,10 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D68">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -1975,10 +1972,10 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D69">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1995,16 +1992,16 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D70">
-        <v>384</v>
+        <v>488</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2012,16 +2009,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D71">
-        <v>174</v>
+        <v>449</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2032,13 +2029,13 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D72">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -2052,16 +2049,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D73">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="E73">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2075,10 +2072,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D74">
-        <v>368</v>
+        <v>174</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2095,16 +2092,56 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D75">
-        <v>233</v>
+        <v>433</v>
       </c>
       <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76">
+        <v>494</v>
+      </c>
+      <c r="E76">
+        <v>45</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77">
+        <v>368</v>
+      </c>
+      <c r="E77">
         <v>2</v>
       </c>
-      <c r="F75" t="s">
-        <v>18</v>
+      <c r="F77" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
